--- a/Python/controlProjects/venv/src/Templates/Verify Screening processes.xlsx
+++ b/Python/controlProjects/venv/src/Templates/Verify Screening processes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrma\Desktop\Ny mappe\controlProjects\venv\src\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrma\Desktop\Ny mappe\IT-security\Python\controlProjects\venv\src\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D97782-0E4B-4BE1-B20E-45C1D80AE3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72E3AD8-C576-4D42-82B3-72C5D85B55A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1830" windowWidth="28545" windowHeight="17265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4695" yWindow="1170" windowWidth="28560" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Prior the hiring…</t>
   </si>
@@ -81,13 +81,16 @@
   </si>
   <si>
     <t>OBS This control should be done every 3rd month</t>
+  </si>
+  <si>
+    <t>Contact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +122,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,10 +200,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,18 +215,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -491,10 +517,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Ark1"/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,61 +534,53 @@
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="H7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -570,34 +588,51 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A11"/>
   </mergeCells>
+  <conditionalFormatting sqref="H10:I11 J10">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{064C6A8D-747C-49D8-9929-08BE403F88C9}">
       <formula1>H3</formula1>
